--- a/data/pca/factorExposure/factorExposure_2018-01-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0006981559052213909</v>
+        <v>0.007468247805122418</v>
       </c>
       <c r="C2">
-        <v>0.004645158632176132</v>
+        <v>-0.02670351071966149</v>
       </c>
       <c r="D2">
-        <v>-0.02128526682430325</v>
+        <v>0.02688125265348606</v>
       </c>
       <c r="E2">
-        <v>0.04471089518484738</v>
+        <v>-0.01135984185025112</v>
       </c>
       <c r="F2">
-        <v>0.04658322710661952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03127545592824914</v>
+      </c>
+      <c r="G2">
+        <v>0.0147139581969861</v>
+      </c>
+      <c r="H2">
+        <v>-0.02636733579955423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06247829708393258</v>
+        <v>0.05964087443212378</v>
       </c>
       <c r="C3">
-        <v>-0.004402243627069802</v>
+        <v>-0.08242102978700208</v>
       </c>
       <c r="D3">
-        <v>0.02297802426068625</v>
+        <v>0.01002603821728837</v>
       </c>
       <c r="E3">
-        <v>0.1676718244470738</v>
+        <v>-0.05330641751290436</v>
       </c>
       <c r="F3">
-        <v>0.2264239315796434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.1134648994613886</v>
+      </c>
+      <c r="G3">
+        <v>-0.004523346240059969</v>
+      </c>
+      <c r="H3">
+        <v>-0.07458722907164833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03150025479909786</v>
+        <v>0.03634079897049204</v>
       </c>
       <c r="C4">
-        <v>-0.01646741061718116</v>
+        <v>-0.05928175599508016</v>
       </c>
       <c r="D4">
-        <v>-0.0314427487436802</v>
+        <v>0.02076562476496691</v>
       </c>
       <c r="E4">
-        <v>0.000807116636985965</v>
+        <v>0.003120992359682896</v>
       </c>
       <c r="F4">
-        <v>0.04975231583280353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04255116239209117</v>
+      </c>
+      <c r="G4">
+        <v>-0.02524785263763749</v>
+      </c>
+      <c r="H4">
+        <v>-0.0009381127574377301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04945107287052364</v>
+        <v>0.02305227359904685</v>
       </c>
       <c r="C6">
-        <v>-0.00609801592244753</v>
+        <v>-0.05587004293019537</v>
       </c>
       <c r="D6">
-        <v>-0.04162760496066353</v>
+        <v>0.01486423280230173</v>
       </c>
       <c r="E6">
-        <v>-0.001023912921188562</v>
+        <v>0.00374436726456245</v>
       </c>
       <c r="F6">
-        <v>0.04026237504727438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02152708531930039</v>
+      </c>
+      <c r="G6">
+        <v>-0.01096815420234686</v>
+      </c>
+      <c r="H6">
+        <v>-0.00540008956038095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02076040436376468</v>
+        <v>0.005352858206815758</v>
       </c>
       <c r="C7">
-        <v>-0.07112478119993919</v>
+        <v>-0.02972293696936222</v>
       </c>
       <c r="D7">
-        <v>-0.005313409740635813</v>
+        <v>0.01232024398169413</v>
       </c>
       <c r="E7">
-        <v>0.005447664596039553</v>
+        <v>0.01731446192433493</v>
       </c>
       <c r="F7">
-        <v>0.01321633733671934</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.0273755846536759</v>
+      </c>
+      <c r="G7">
+        <v>-0.06042795104206298</v>
+      </c>
+      <c r="H7">
+        <v>-0.04056948670912151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01364038116565904</v>
+        <v>-0.006076161180008697</v>
       </c>
       <c r="C8">
-        <v>-0.009509113951279409</v>
+        <v>-0.001367850087212797</v>
       </c>
       <c r="D8">
-        <v>-0.02259504755444604</v>
+        <v>0.001946058598949745</v>
       </c>
       <c r="E8">
-        <v>0.005109537363121699</v>
+        <v>-0.004273755858723087</v>
       </c>
       <c r="F8">
-        <v>0.0471417728718116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02973368845248932</v>
+      </c>
+      <c r="G8">
+        <v>-0.01057543395493117</v>
+      </c>
+      <c r="H8">
+        <v>-0.002400314761072291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02716904389945293</v>
+        <v>0.01667438406724083</v>
       </c>
       <c r="C9">
-        <v>-0.01291796827314347</v>
+        <v>-0.03956620941952914</v>
       </c>
       <c r="D9">
-        <v>-0.03025397657202679</v>
+        <v>0.01471433698108692</v>
       </c>
       <c r="E9">
-        <v>0.03207695148288953</v>
+        <v>0.000607898518430663</v>
       </c>
       <c r="F9">
-        <v>0.0503080707553713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02355100695070689</v>
+      </c>
+      <c r="G9">
+        <v>-0.0151162010064981</v>
+      </c>
+      <c r="H9">
+        <v>-0.02312737608972449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05340042123864455</v>
+        <v>0.1117315366546549</v>
       </c>
       <c r="C10">
-        <v>0.005186955910209357</v>
+        <v>0.1686864277157387</v>
       </c>
       <c r="D10">
-        <v>0.1563175926723825</v>
+        <v>-0.02226341611969129</v>
       </c>
       <c r="E10">
-        <v>0.05767089151747177</v>
+        <v>-0.02504446339253031</v>
       </c>
       <c r="F10">
-        <v>-0.005228213236738936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.003438701412741746</v>
+      </c>
+      <c r="G10">
+        <v>-0.02099165282840908</v>
+      </c>
+      <c r="H10">
+        <v>-0.03914832356568151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0267439613814898</v>
+        <v>0.02173905060912515</v>
       </c>
       <c r="C11">
-        <v>0.002805707131856078</v>
+        <v>-0.05008224934679336</v>
       </c>
       <c r="D11">
-        <v>-0.04303928502961059</v>
+        <v>0.0003964525104734341</v>
       </c>
       <c r="E11">
-        <v>-0.005181887990956357</v>
+        <v>0.008226584354428289</v>
       </c>
       <c r="F11">
-        <v>0.01986440594848273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03328733537850477</v>
+      </c>
+      <c r="G11">
+        <v>0.01158090693885933</v>
+      </c>
+      <c r="H11">
+        <v>-0.01766512518308491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03399667467722</v>
+        <v>0.02444985324598418</v>
       </c>
       <c r="C12">
-        <v>-0.002571284983108504</v>
+        <v>-0.04531817997146181</v>
       </c>
       <c r="D12">
-        <v>-0.03780415451720311</v>
+        <v>0.004429866924797686</v>
       </c>
       <c r="E12">
-        <v>-0.01886316659641188</v>
+        <v>0.01266612291459758</v>
       </c>
       <c r="F12">
-        <v>0.002540632646760225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01692767159589262</v>
+      </c>
+      <c r="G12">
+        <v>-0.006049191760355088</v>
+      </c>
+      <c r="H12">
+        <v>-0.01109658831703522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01456411987683467</v>
+        <v>0.009783496618832196</v>
       </c>
       <c r="C13">
-        <v>0.003645318610981259</v>
+        <v>-0.02222493400671818</v>
       </c>
       <c r="D13">
-        <v>-0.006904539416884346</v>
+        <v>0.02273720189840905</v>
       </c>
       <c r="E13">
-        <v>0.02292646694246243</v>
+        <v>-0.01421567591313349</v>
       </c>
       <c r="F13">
-        <v>0.04767593356726931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.04997497146285089</v>
+      </c>
+      <c r="G13">
+        <v>0.003333289441128856</v>
+      </c>
+      <c r="H13">
+        <v>-0.02207646315835926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01090875265791546</v>
+        <v>0.003658691230182562</v>
       </c>
       <c r="C14">
-        <v>-0.0155978580836506</v>
+        <v>-0.01827137330747623</v>
       </c>
       <c r="D14">
-        <v>-0.007468087921646889</v>
+        <v>0.007764068558634507</v>
       </c>
       <c r="E14">
-        <v>0.002834855865107182</v>
+        <v>0.006370817952709547</v>
       </c>
       <c r="F14">
-        <v>0.04116874965918607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02200934549417114</v>
+      </c>
+      <c r="G14">
+        <v>-0.02436336554030503</v>
+      </c>
+      <c r="H14">
+        <v>-0.009904519069994535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02284595467452914</v>
+        <v>0.02016836861310655</v>
       </c>
       <c r="C16">
-        <v>-0.002614252879714193</v>
+        <v>-0.0407229433558604</v>
       </c>
       <c r="D16">
-        <v>-0.04094812124409653</v>
+        <v>0.0001119767337192147</v>
       </c>
       <c r="E16">
-        <v>-0.003543636651638415</v>
+        <v>0.005912261623326537</v>
       </c>
       <c r="F16">
-        <v>0.02067684183115606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02448146890409913</v>
+      </c>
+      <c r="G16">
+        <v>-0.000432341258135361</v>
+      </c>
+      <c r="H16">
+        <v>-0.01310634566638657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02460744315793508</v>
+        <v>0.02151967918145183</v>
       </c>
       <c r="C19">
-        <v>-0.001260921581923967</v>
+        <v>-0.04508205892170289</v>
       </c>
       <c r="D19">
-        <v>-0.03124087752827274</v>
+        <v>0.01249609293805548</v>
       </c>
       <c r="E19">
-        <v>0.002697747758016464</v>
+        <v>-0.01782795792171293</v>
       </c>
       <c r="F19">
-        <v>0.08129059101454833</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.06627115637724028</v>
+      </c>
+      <c r="G19">
+        <v>-0.006351382419617255</v>
+      </c>
+      <c r="H19">
+        <v>-0.01018269064339309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0004751164202905546</v>
+        <v>0.004301595096322923</v>
       </c>
       <c r="C20">
-        <v>-0.004759191546686671</v>
+        <v>-0.02386696350163262</v>
       </c>
       <c r="D20">
-        <v>-0.001603574166831423</v>
+        <v>0.01184956619634931</v>
       </c>
       <c r="E20">
-        <v>0.02346760415498498</v>
+        <v>-0.01427123440931997</v>
       </c>
       <c r="F20">
-        <v>0.02610760014106208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02658824857707064</v>
+      </c>
+      <c r="G20">
+        <v>-0.008090765522529334</v>
+      </c>
+      <c r="H20">
+        <v>-0.01423555615267316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02903682172451409</v>
+        <v>0.005339144686108081</v>
       </c>
       <c r="C21">
-        <v>-0.02295881654121273</v>
+        <v>-0.02227832181734285</v>
       </c>
       <c r="D21">
-        <v>-0.02082748506860836</v>
+        <v>0.01465597471715107</v>
       </c>
       <c r="E21">
-        <v>0.003088246725089901</v>
+        <v>-0.01237142155922822</v>
       </c>
       <c r="F21">
-        <v>0.03655225638285112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.04618407278615941</v>
+      </c>
+      <c r="G21">
+        <v>-0.02130443826750223</v>
+      </c>
+      <c r="H21">
+        <v>-0.02859618028758825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02280153446586918</v>
+        <v>0.01483899676800633</v>
       </c>
       <c r="C24">
-        <v>-0.0006847873768709983</v>
+        <v>-0.04182269763021119</v>
       </c>
       <c r="D24">
-        <v>-0.03206383026284264</v>
+        <v>0.005257745621763691</v>
       </c>
       <c r="E24">
-        <v>-0.003920108721232458</v>
+        <v>0.01082596563689085</v>
       </c>
       <c r="F24">
-        <v>0.01761085607360996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02542911755590458</v>
+      </c>
+      <c r="G24">
+        <v>0.00546216474693784</v>
+      </c>
+      <c r="H24">
+        <v>-0.01873528630020999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03479219155743292</v>
+        <v>0.03105752481165328</v>
       </c>
       <c r="C25">
-        <v>0.0005874218787133727</v>
+        <v>-0.05089499056853768</v>
       </c>
       <c r="D25">
-        <v>-0.03363597058468008</v>
+        <v>0.008779194338175875</v>
       </c>
       <c r="E25">
-        <v>0.004605233662262027</v>
+        <v>0.01702728724386441</v>
       </c>
       <c r="F25">
-        <v>0.03098610016516699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02697023536949089</v>
+      </c>
+      <c r="G25">
+        <v>-0.003673605725171157</v>
+      </c>
+      <c r="H25">
+        <v>-0.01100374625388723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00501250544571692</v>
+        <v>0.0008514285534788121</v>
       </c>
       <c r="C26">
-        <v>-0.007679591157696922</v>
+        <v>-0.001190118372112212</v>
       </c>
       <c r="D26">
-        <v>-0.01099668732695207</v>
+        <v>0.02324127475516579</v>
       </c>
       <c r="E26">
-        <v>0.03266591292278516</v>
+        <v>0.002089820458110722</v>
       </c>
       <c r="F26">
-        <v>0.02772864852994206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01195045469869363</v>
+      </c>
+      <c r="G26">
+        <v>-0.01268567216226516</v>
+      </c>
+      <c r="H26">
+        <v>-0.01549738929594694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.002467323357307104</v>
+        <v>0.001125123052666794</v>
       </c>
       <c r="C27">
-        <v>0.0003218349523807211</v>
+        <v>0.0008132566237523151</v>
       </c>
       <c r="D27">
-        <v>0.006092069091305852</v>
+        <v>-0.0005650088263664861</v>
       </c>
       <c r="E27">
-        <v>-0.00826407846710627</v>
+        <v>-0.0008836010225012413</v>
       </c>
       <c r="F27">
-        <v>0.01195377317457035</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.002044913963811156</v>
+      </c>
+      <c r="G27">
+        <v>-0.003176366410456009</v>
+      </c>
+      <c r="H27">
+        <v>0.006175759409524899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.09586041868284255</v>
+        <v>0.1514466102802833</v>
       </c>
       <c r="C28">
-        <v>0.009179310048587149</v>
+        <v>0.2119996133757392</v>
       </c>
       <c r="D28">
-        <v>0.2283527727021912</v>
+        <v>-0.01591123465895028</v>
       </c>
       <c r="E28">
-        <v>0.068376899229382</v>
+        <v>-0.01740210072733459</v>
       </c>
       <c r="F28">
-        <v>-0.01196891344590849</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.00344203679436858</v>
+      </c>
+      <c r="G28">
+        <v>-0.03049390351117223</v>
+      </c>
+      <c r="H28">
+        <v>-0.03960535742287473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01184427100082967</v>
+        <v>0.007937981092525121</v>
       </c>
       <c r="C29">
-        <v>-0.01136056552689632</v>
+        <v>-0.01458189112418525</v>
       </c>
       <c r="D29">
-        <v>-0.006596185425145565</v>
+        <v>0.006622444655729767</v>
       </c>
       <c r="E29">
-        <v>0.00067453543742399</v>
+        <v>0.006118936405754498</v>
       </c>
       <c r="F29">
-        <v>0.04049864386964871</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01448313519638553</v>
+      </c>
+      <c r="G29">
+        <v>-0.022803001641791</v>
+      </c>
+      <c r="H29">
+        <v>-0.001662882382045911</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03674966065308134</v>
+        <v>0.03295825680855539</v>
       </c>
       <c r="C30">
-        <v>0.04849284942617148</v>
+        <v>-0.07815792400419455</v>
       </c>
       <c r="D30">
-        <v>-0.05554936246155338</v>
+        <v>0.02433622731699031</v>
       </c>
       <c r="E30">
-        <v>0.007868730947725659</v>
+        <v>-0.0004734874102161494</v>
       </c>
       <c r="F30">
-        <v>0.085441286478737</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04763049327358591</v>
+      </c>
+      <c r="G30">
+        <v>0.03039524415215617</v>
+      </c>
+      <c r="H30">
+        <v>0.0150167635120315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04367585758278826</v>
+        <v>0.03250059085394785</v>
       </c>
       <c r="C31">
-        <v>-0.01094204869157817</v>
+        <v>-0.01967495909016628</v>
       </c>
       <c r="D31">
-        <v>-0.01535866712543805</v>
+        <v>0.001515500376172003</v>
       </c>
       <c r="E31">
-        <v>-0.006399661474401484</v>
+        <v>0.00859469591802777</v>
       </c>
       <c r="F31">
-        <v>0.02297632973799007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01115018234603438</v>
+      </c>
+      <c r="G31">
+        <v>-0.02471669281560496</v>
+      </c>
+      <c r="H31">
+        <v>-0.006965267767269288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.004110762932515498</v>
+        <v>0.003297090269034539</v>
       </c>
       <c r="C32">
-        <v>-0.02674376064299372</v>
+        <v>-0.02108270136562245</v>
       </c>
       <c r="D32">
-        <v>-0.02556995950706739</v>
+        <v>-0.006689098787532421</v>
       </c>
       <c r="E32">
-        <v>-0.008482916742683359</v>
+        <v>0.0001242928952322238</v>
       </c>
       <c r="F32">
-        <v>0.05025872569777001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.09991810288282192</v>
+      </c>
+      <c r="G32">
+        <v>-0.008775707371105447</v>
+      </c>
+      <c r="H32">
+        <v>-0.01119247186926249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03037757008469463</v>
+        <v>0.01996059770983551</v>
       </c>
       <c r="C33">
-        <v>0.01886910615380647</v>
+        <v>-0.04513744207217708</v>
       </c>
       <c r="D33">
-        <v>-0.03637252391212432</v>
+        <v>0.01228011207938294</v>
       </c>
       <c r="E33">
-        <v>0.01930454789066612</v>
+        <v>-0.008699659525984452</v>
       </c>
       <c r="F33">
-        <v>0.04570008913015774</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02723906692351949</v>
+      </c>
+      <c r="G33">
+        <v>0.009390075894859379</v>
+      </c>
+      <c r="H33">
+        <v>-0.02573255775811869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02408171502143747</v>
+        <v>0.03003374836487278</v>
       </c>
       <c r="C34">
-        <v>-0.01079166195875818</v>
+        <v>-0.05002042518387769</v>
       </c>
       <c r="D34">
-        <v>-0.04119687100594108</v>
+        <v>-0.007348158126924776</v>
       </c>
       <c r="E34">
-        <v>-0.006180295744534619</v>
+        <v>0.02137156555119803</v>
       </c>
       <c r="F34">
-        <v>0.02394849218559468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02749324358781741</v>
+      </c>
+      <c r="G34">
+        <v>-0.006575473815333235</v>
+      </c>
+      <c r="H34">
+        <v>-0.01604824976419399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01035823092190561</v>
+        <v>0.005659852629168132</v>
       </c>
       <c r="C36">
-        <v>-0.006178598081472155</v>
+        <v>-0.0006734446444149057</v>
       </c>
       <c r="D36">
-        <v>-0.003791743722713115</v>
+        <v>0.01047992675243392</v>
       </c>
       <c r="E36">
-        <v>0.008282220244735631</v>
+        <v>0.0001587590702227351</v>
       </c>
       <c r="F36">
-        <v>0.0233089396246529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.008565029845066062</v>
+      </c>
+      <c r="G36">
+        <v>-0.008263570988257793</v>
+      </c>
+      <c r="H36">
+        <v>-0.01245326342479773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01554428161176512</v>
+        <v>0.02388215738147897</v>
       </c>
       <c r="C38">
-        <v>0.003222557593101066</v>
+        <v>-0.01677678011541756</v>
       </c>
       <c r="D38">
-        <v>-0.002455548444612468</v>
+        <v>-0.009237850688623733</v>
       </c>
       <c r="E38">
-        <v>0.03013705051028337</v>
+        <v>0.002758733908038369</v>
       </c>
       <c r="F38">
-        <v>0.03750710752267532</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01605418262973569</v>
+      </c>
+      <c r="G38">
+        <v>-0.008757581251318498</v>
+      </c>
+      <c r="H38">
+        <v>-0.01074972896471313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01807568224439018</v>
+        <v>0.0115338585125299</v>
       </c>
       <c r="C39">
-        <v>-0.008549574486027585</v>
+        <v>-0.0833180899172844</v>
       </c>
       <c r="D39">
-        <v>-0.06060194811165521</v>
+        <v>0.01116583015269665</v>
       </c>
       <c r="E39">
-        <v>0.01169765608425873</v>
+        <v>0.003738083375100936</v>
       </c>
       <c r="F39">
-        <v>0.04715055373050942</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04330807025129946</v>
+      </c>
+      <c r="G39">
+        <v>0.01081429922564018</v>
+      </c>
+      <c r="H39">
+        <v>-0.02962309722295985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0223578016096224</v>
+        <v>0.02034518657797191</v>
       </c>
       <c r="C40">
-        <v>0.003006857792620453</v>
+        <v>-0.02416161231820552</v>
       </c>
       <c r="D40">
-        <v>-0.03614594986832027</v>
+        <v>0.0105749056107931</v>
       </c>
       <c r="E40">
-        <v>0.01506368300742302</v>
+        <v>0.0005827174914361703</v>
       </c>
       <c r="F40">
-        <v>0.009277583173846159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02875251764530326</v>
+      </c>
+      <c r="G40">
+        <v>0.008057818236169287</v>
+      </c>
+      <c r="H40">
+        <v>-0.02372895844731414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006830984835225382</v>
+        <v>0.01036564425908936</v>
       </c>
       <c r="C41">
-        <v>0.0007665521809533169</v>
+        <v>0.007081064109761495</v>
       </c>
       <c r="D41">
-        <v>0.01309988274227626</v>
+        <v>0.002640426429087594</v>
       </c>
       <c r="E41">
-        <v>0.01373084185582628</v>
+        <v>0.004760295852637445</v>
       </c>
       <c r="F41">
-        <v>-0.001548415278942384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.004334407271983552</v>
+      </c>
+      <c r="G41">
+        <v>-0.00277275742834054</v>
+      </c>
+      <c r="H41">
+        <v>-0.01131155652568076</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2406626588552702</v>
+        <v>0.05351362895106711</v>
       </c>
       <c r="C42">
-        <v>0.1582487478155377</v>
+        <v>-0.1077157883150024</v>
       </c>
       <c r="D42">
-        <v>-0.2723739454364263</v>
+        <v>0.119162426111339</v>
       </c>
       <c r="E42">
-        <v>0.6430513651065561</v>
+        <v>-0.125207991198865</v>
       </c>
       <c r="F42">
-        <v>-0.608806389742914</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.5846725734317592</v>
+      </c>
+      <c r="G42">
+        <v>0.3321193080015415</v>
+      </c>
+      <c r="H42">
+        <v>-0.6915259608721955</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01302761520377936</v>
+        <v>0.02206926019218552</v>
       </c>
       <c r="C43">
-        <v>0.003443831668326206</v>
+        <v>-0.0008396143454177831</v>
       </c>
       <c r="D43">
-        <v>0.005153349136968807</v>
+        <v>0.002187984068775052</v>
       </c>
       <c r="E43">
-        <v>0.01619866846977405</v>
+        <v>0.001628942010475492</v>
       </c>
       <c r="F43">
-        <v>0.01099381978685282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01270129565523923</v>
+      </c>
+      <c r="G43">
+        <v>0.00235214538491957</v>
+      </c>
+      <c r="H43">
+        <v>-0.01592540749360605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.008036117970651324</v>
+        <v>0.008919533390008717</v>
       </c>
       <c r="C44">
-        <v>-0.01145817187532829</v>
+        <v>-0.04104497947588556</v>
       </c>
       <c r="D44">
-        <v>-0.02020910046598845</v>
+        <v>0.005785950027247942</v>
       </c>
       <c r="E44">
-        <v>0.03473327969225734</v>
+        <v>-0.009300192188315362</v>
       </c>
       <c r="F44">
-        <v>0.06347274943782337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03541259780250505</v>
+      </c>
+      <c r="G44">
+        <v>-0.006053064519487184</v>
+      </c>
+      <c r="H44">
+        <v>-0.03623434626257125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01262125549858786</v>
+        <v>-0.001518292402702</v>
       </c>
       <c r="C46">
-        <v>-0.002512834239393087</v>
+        <v>-0.007817590827546544</v>
       </c>
       <c r="D46">
-        <v>-0.03549885708475785</v>
+        <v>0.01124062035061687</v>
       </c>
       <c r="E46">
-        <v>0.007282524737013073</v>
+        <v>-0.001150024161399943</v>
       </c>
       <c r="F46">
-        <v>0.06830934193515006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.0117071362114286</v>
+      </c>
+      <c r="G46">
+        <v>-0.01376134798737541</v>
+      </c>
+      <c r="H46">
+        <v>-0.002903528319363232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06777640446724924</v>
+        <v>0.05721755214297444</v>
       </c>
       <c r="C47">
-        <v>0.00491657882167074</v>
+        <v>-0.05308168940629625</v>
       </c>
       <c r="D47">
-        <v>-0.01729068685492917</v>
+        <v>-0.00665009343266651</v>
       </c>
       <c r="E47">
-        <v>-0.02558802188144068</v>
+        <v>0.006153786993213955</v>
       </c>
       <c r="F47">
-        <v>-0.005071404762989646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03446389479712444</v>
+      </c>
+      <c r="G47">
+        <v>-0.03123403979708703</v>
+      </c>
+      <c r="H47">
+        <v>0.009537918722070425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02004991580329002</v>
+        <v>0.008743003700566137</v>
       </c>
       <c r="C48">
-        <v>-0.004690768523585687</v>
+        <v>-0.004412941863658512</v>
       </c>
       <c r="D48">
-        <v>-0.00656457546117846</v>
+        <v>0.0005809806334149544</v>
       </c>
       <c r="E48">
-        <v>0.007646800600508874</v>
+        <v>0.001410106036290515</v>
       </c>
       <c r="F48">
-        <v>0.02407306627970759</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.0004587693109675332</v>
+      </c>
+      <c r="G48">
+        <v>-0.01477563212719319</v>
+      </c>
+      <c r="H48">
+        <v>-0.008416788058991044</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07801158801150335</v>
+        <v>0.05949241280990498</v>
       </c>
       <c r="C50">
-        <v>-0.02400284943798281</v>
+        <v>-0.05264512603306916</v>
       </c>
       <c r="D50">
-        <v>-0.03837201265584903</v>
+        <v>-0.005498523026513519</v>
       </c>
       <c r="E50">
-        <v>-0.009455732440397881</v>
+        <v>0.007849104856562573</v>
       </c>
       <c r="F50">
-        <v>0.02587286916703914</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02522056830305487</v>
+      </c>
+      <c r="G50">
+        <v>-0.05521732149243956</v>
+      </c>
+      <c r="H50">
+        <v>-0.004506113898793141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00516700217847506</v>
+        <v>0.005820440336791445</v>
       </c>
       <c r="C51">
-        <v>-0.0078821831534695</v>
+        <v>-0.01678122194929041</v>
       </c>
       <c r="D51">
-        <v>0.01478221034674999</v>
+        <v>0.008008858848394208</v>
       </c>
       <c r="E51">
-        <v>0.03934856222062386</v>
+        <v>0.00483996238080654</v>
       </c>
       <c r="F51">
-        <v>0.06085692998002824</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03872406754635466</v>
+      </c>
+      <c r="G51">
+        <v>-0.007325837677462672</v>
+      </c>
+      <c r="H51">
+        <v>-0.03433075977401143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1002978970806041</v>
+        <v>0.08227244051803922</v>
       </c>
       <c r="C53">
-        <v>-0.006638080551149633</v>
+        <v>-0.0808878826496702</v>
       </c>
       <c r="D53">
-        <v>-0.04728764083016043</v>
+        <v>-0.007749988923103254</v>
       </c>
       <c r="E53">
-        <v>-0.05720066206967822</v>
+        <v>0.03025497671659499</v>
       </c>
       <c r="F53">
-        <v>-0.01062772894617991</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05119762097686395</v>
+      </c>
+      <c r="G53">
+        <v>-0.04026679274918625</v>
+      </c>
+      <c r="H53">
+        <v>0.01442284133070902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02428770145879172</v>
+        <v>0.0186879028827788</v>
       </c>
       <c r="C54">
-        <v>-0.009351973623079893</v>
+        <v>-0.001505963939500834</v>
       </c>
       <c r="D54">
-        <v>0.003201841345919212</v>
+        <v>-0.004840102499340349</v>
       </c>
       <c r="E54">
-        <v>-0.01062093992874223</v>
+        <v>-0.001678673714088187</v>
       </c>
       <c r="F54">
-        <v>0.02896605149089838</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01767752196557608</v>
+      </c>
+      <c r="G54">
+        <v>-0.01777071601511256</v>
+      </c>
+      <c r="H54">
+        <v>-0.008779821155492253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07534042170732994</v>
+        <v>0.05408429941084293</v>
       </c>
       <c r="C55">
-        <v>0.0005367652502373219</v>
+        <v>-0.06952391318010828</v>
       </c>
       <c r="D55">
-        <v>-0.0631934707415861</v>
+        <v>-0.0054897299863571</v>
       </c>
       <c r="E55">
-        <v>-0.03442586309089817</v>
+        <v>0.01905533506036453</v>
       </c>
       <c r="F55">
-        <v>-0.01499019325206729</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05359906809657607</v>
+      </c>
+      <c r="G55">
+        <v>-0.03130623079746604</v>
+      </c>
+      <c r="H55">
+        <v>0.01467197915208566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.141352238818272</v>
+        <v>0.1191552838653785</v>
       </c>
       <c r="C56">
-        <v>0.0006083804280359979</v>
+        <v>-0.1127467521831143</v>
       </c>
       <c r="D56">
-        <v>-0.06354444860687862</v>
+        <v>-0.01615209464892518</v>
       </c>
       <c r="E56">
-        <v>-0.08386912980588572</v>
+        <v>0.03123834344259848</v>
       </c>
       <c r="F56">
-        <v>-0.04269220227535922</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.08749002209320543</v>
+      </c>
+      <c r="G56">
+        <v>-0.04431733252025166</v>
+      </c>
+      <c r="H56">
+        <v>0.04184137765575062</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03426461663761058</v>
+        <v>0.01592600365151869</v>
       </c>
       <c r="C57">
-        <v>0.008198570709225665</v>
+        <v>-0.01694291659619363</v>
       </c>
       <c r="D57">
-        <v>-0.01743474600580933</v>
+        <v>0.02340519068546036</v>
       </c>
       <c r="E57">
-        <v>0.04075388755838757</v>
+        <v>-0.03018243519102572</v>
       </c>
       <c r="F57">
-        <v>0.03407689384113247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03635164574250829</v>
+      </c>
+      <c r="G57">
+        <v>-0.006595077202958742</v>
+      </c>
+      <c r="H57">
+        <v>-0.02239092533849117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1963810151131513</v>
+        <v>0.07297725970361484</v>
       </c>
       <c r="C58">
-        <v>0.1312855540146963</v>
+        <v>-0.1401979543363836</v>
       </c>
       <c r="D58">
-        <v>-0.1877888531274055</v>
+        <v>0.01667459075866753</v>
       </c>
       <c r="E58">
-        <v>0.3736443718263538</v>
+        <v>-0.962778642292987</v>
       </c>
       <c r="F58">
-        <v>0.6044665013571994</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.05407239275619546</v>
+      </c>
+      <c r="G58">
+        <v>-0.09964675502261798</v>
+      </c>
+      <c r="H58">
+        <v>0.112301831052231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.09047291995824522</v>
+        <v>0.1804356573223833</v>
       </c>
       <c r="C59">
-        <v>0.02954001313646885</v>
+        <v>0.1923100277610724</v>
       </c>
       <c r="D59">
-        <v>0.1893891691231072</v>
+        <v>-0.02341470662452281</v>
       </c>
       <c r="E59">
-        <v>0.05506434451915286</v>
+        <v>-0.01650749714159961</v>
       </c>
       <c r="F59">
-        <v>0.03643093855935095</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02818012701233518</v>
+      </c>
+      <c r="G59">
+        <v>-0.003622794868586599</v>
+      </c>
+      <c r="H59">
+        <v>-0.02171465017934321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1908231694986887</v>
+        <v>0.2923306714543099</v>
       </c>
       <c r="C60">
-        <v>0.04264401107786189</v>
+        <v>-0.1277209249775572</v>
       </c>
       <c r="D60">
-        <v>0.01840682673749293</v>
+        <v>-0.006167818509577002</v>
       </c>
       <c r="E60">
-        <v>0.05969420827243332</v>
+        <v>0.06453423913353408</v>
       </c>
       <c r="F60">
-        <v>0.1005231997665455</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3471544033401993</v>
+      </c>
+      <c r="G60">
+        <v>0.2090876722292104</v>
+      </c>
+      <c r="H60">
+        <v>-0.1090886087527646</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02428021560554944</v>
+        <v>0.01950709945189739</v>
       </c>
       <c r="C61">
-        <v>-0.002444735703919123</v>
+        <v>-0.0652906657372031</v>
       </c>
       <c r="D61">
-        <v>-0.04747419193889818</v>
+        <v>0.003889796751907425</v>
       </c>
       <c r="E61">
-        <v>0.005916224954178936</v>
+        <v>0.006878502068384327</v>
       </c>
       <c r="F61">
-        <v>0.02331691962151943</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03654526626442725</v>
+      </c>
+      <c r="G61">
+        <v>0.002862438649665246</v>
+      </c>
+      <c r="H61">
+        <v>-0.01779954474741022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01332555352421945</v>
+        <v>0.008169778509556904</v>
       </c>
       <c r="C63">
-        <v>-0.006309125849664209</v>
+        <v>-0.02630701126503369</v>
       </c>
       <c r="D63">
-        <v>-0.02144466512400287</v>
+        <v>0.007267471585230074</v>
       </c>
       <c r="E63">
-        <v>0.0001594395347867171</v>
+        <v>0.01406829907283084</v>
       </c>
       <c r="F63">
-        <v>0.01117686327499509</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.008015305665186321</v>
+      </c>
+      <c r="G63">
+        <v>-0.01800408465595739</v>
+      </c>
+      <c r="H63">
+        <v>-0.004441250222756043</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04053553999396431</v>
+        <v>0.03760709003142391</v>
       </c>
       <c r="C64">
-        <v>-0.002507140779360191</v>
+        <v>-0.03842290822672072</v>
       </c>
       <c r="D64">
-        <v>-0.03037515870664684</v>
+        <v>0.002743729498179701</v>
       </c>
       <c r="E64">
-        <v>0.0002462726011970813</v>
+        <v>0.01696381093193696</v>
       </c>
       <c r="F64">
-        <v>0.02376263517470297</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.003736876356653058</v>
+      </c>
+      <c r="G64">
+        <v>-0.0002279504875768245</v>
+      </c>
+      <c r="H64">
+        <v>-0.02292568962906642</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05471988349874041</v>
+        <v>0.06037954070968698</v>
       </c>
       <c r="C65">
-        <v>-0.006614654303638309</v>
+        <v>-0.07915117481444706</v>
       </c>
       <c r="D65">
-        <v>-0.04416898116062166</v>
+        <v>0.01337924130263493</v>
       </c>
       <c r="E65">
-        <v>-0.006349361699603574</v>
+        <v>0.01751218378960403</v>
       </c>
       <c r="F65">
-        <v>0.03582824702708422</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03088573113933635</v>
+      </c>
+      <c r="G65">
+        <v>-0.0004048855849800865</v>
+      </c>
+      <c r="H65">
+        <v>0.004430489309546707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03987137838669293</v>
+        <v>0.02816534988415976</v>
       </c>
       <c r="C66">
-        <v>0.009343723564946546</v>
+        <v>-0.1242423773341718</v>
       </c>
       <c r="D66">
-        <v>-0.0705141903643078</v>
+        <v>0.00945685736911909</v>
       </c>
       <c r="E66">
-        <v>-0.0298705065605721</v>
+        <v>0.00818407945691081</v>
       </c>
       <c r="F66">
-        <v>0.06489457007149035</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06158016809415667</v>
+      </c>
+      <c r="G66">
+        <v>0.01708517482679235</v>
+      </c>
+      <c r="H66">
+        <v>-0.004570597284227435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02886374855735193</v>
+        <v>0.04705609099664527</v>
       </c>
       <c r="C67">
-        <v>0.006322754000870665</v>
+        <v>-0.02423026255889025</v>
       </c>
       <c r="D67">
-        <v>0.003933472650167256</v>
+        <v>-0.008400512380117714</v>
       </c>
       <c r="E67">
-        <v>0.01274786514537466</v>
+        <v>0.009174093271405193</v>
       </c>
       <c r="F67">
-        <v>0.02661256316587567</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01725456980494655</v>
+      </c>
+      <c r="G67">
+        <v>-0.01183451129748195</v>
+      </c>
+      <c r="H67">
+        <v>-0.003524615065010268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09676141204348473</v>
+        <v>0.1717649111787363</v>
       </c>
       <c r="C68">
-        <v>0.03092602085659966</v>
+        <v>0.2382638270481525</v>
       </c>
       <c r="D68">
-        <v>0.2197137575547462</v>
+        <v>-0.005115523919243373</v>
       </c>
       <c r="E68">
-        <v>0.05491475243639095</v>
+        <v>-0.02779711289989361</v>
       </c>
       <c r="F68">
-        <v>0.01040387241887226</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.009225185984923424</v>
+      </c>
+      <c r="G68">
+        <v>-0.01319449878748707</v>
+      </c>
+      <c r="H68">
+        <v>-0.02503514678882421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05331514709282622</v>
+        <v>0.05773030407714928</v>
       </c>
       <c r="C69">
-        <v>0.002807545587012828</v>
+        <v>-0.0488560524714002</v>
       </c>
       <c r="D69">
-        <v>-0.02509816473113563</v>
+        <v>-0.01128332135218567</v>
       </c>
       <c r="E69">
-        <v>-0.03049961437742491</v>
+        <v>0.02806503576938279</v>
       </c>
       <c r="F69">
-        <v>0.009217641332255454</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01000514585048722</v>
+      </c>
+      <c r="G69">
+        <v>-0.01742423648089073</v>
+      </c>
+      <c r="H69">
+        <v>0.006874064566547797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08938993377170096</v>
+        <v>0.1546869521322572</v>
       </c>
       <c r="C71">
-        <v>0.01633719338265213</v>
+        <v>0.1986698664061807</v>
       </c>
       <c r="D71">
-        <v>0.2147816707645466</v>
+        <v>-0.01117027619257743</v>
       </c>
       <c r="E71">
-        <v>0.09954882319283162</v>
+        <v>-0.04187145741641854</v>
       </c>
       <c r="F71">
-        <v>-0.02324849910079481</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.013176692736784</v>
+      </c>
+      <c r="G71">
+        <v>-0.02373005845262804</v>
+      </c>
+      <c r="H71">
+        <v>-0.049349056054144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1044208301894188</v>
+        <v>0.07222660853320198</v>
       </c>
       <c r="C72">
-        <v>-0.0009816544052259123</v>
+        <v>-0.08923581618794622</v>
       </c>
       <c r="D72">
-        <v>-0.1056171915617501</v>
+        <v>-0.01325218810900303</v>
       </c>
       <c r="E72">
-        <v>-0.0206392025926934</v>
+        <v>0.03172892228080049</v>
       </c>
       <c r="F72">
-        <v>0.1458694347482385</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0493010153694578</v>
+      </c>
+      <c r="G72">
+        <v>0.01421221851657464</v>
+      </c>
+      <c r="H72">
+        <v>0.01364486684276882</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2329916987275997</v>
+        <v>0.3649958993213723</v>
       </c>
       <c r="C73">
-        <v>0.0984979606795439</v>
+        <v>-0.1881568512501009</v>
       </c>
       <c r="D73">
-        <v>-0.01833547265244717</v>
+        <v>-0.001330954309057454</v>
       </c>
       <c r="E73">
-        <v>0.1143343196217413</v>
+        <v>0.05239875695692468</v>
       </c>
       <c r="F73">
-        <v>0.1107662833598504</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3784851151416457</v>
+      </c>
+      <c r="G73">
+        <v>0.2732480108443957</v>
+      </c>
+      <c r="H73">
+        <v>-0.147822553568287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1326302871435548</v>
+        <v>0.1073839419266883</v>
       </c>
       <c r="C74">
-        <v>0.007662970422216548</v>
+        <v>-0.1201611183109533</v>
       </c>
       <c r="D74">
-        <v>-0.06061739420859213</v>
+        <v>-0.01424817499695702</v>
       </c>
       <c r="E74">
-        <v>-0.0795275510039042</v>
+        <v>0.03552445339383096</v>
       </c>
       <c r="F74">
-        <v>-0.03723676621660602</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.065525737784317</v>
+      </c>
+      <c r="G74">
+        <v>-0.04864164540502234</v>
+      </c>
+      <c r="H74">
+        <v>0.02380925165009791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2578459696941602</v>
+        <v>0.2298253497356098</v>
       </c>
       <c r="C75">
-        <v>0.02544920412371828</v>
+        <v>-0.1820298779991473</v>
       </c>
       <c r="D75">
-        <v>-0.08856449103713292</v>
+        <v>-0.03515471647390669</v>
       </c>
       <c r="E75">
-        <v>-0.1857974268050461</v>
+        <v>0.03863664925689986</v>
       </c>
       <c r="F75">
-        <v>-0.01779508382028907</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1759287763442178</v>
+      </c>
+      <c r="G75">
+        <v>-0.08362108028307214</v>
+      </c>
+      <c r="H75">
+        <v>0.118786682388776</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2718285121072802</v>
+        <v>0.1499794514963131</v>
       </c>
       <c r="C76">
-        <v>0.004287400414243215</v>
+        <v>-0.1478309182480985</v>
       </c>
       <c r="D76">
-        <v>-0.1040284714675002</v>
+        <v>-0.02871923941489717</v>
       </c>
       <c r="E76">
-        <v>-0.2296862764871016</v>
+        <v>0.06139789129427533</v>
       </c>
       <c r="F76">
-        <v>-0.07433250399477537</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1515045695071048</v>
+      </c>
+      <c r="G76">
+        <v>-0.09246642802247924</v>
+      </c>
+      <c r="H76">
+        <v>0.08888039835205146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08134193957286627</v>
+        <v>0.04524647230441333</v>
       </c>
       <c r="C77">
-        <v>0.01182867966094724</v>
+        <v>-0.06766936415387886</v>
       </c>
       <c r="D77">
-        <v>-0.07541965632082777</v>
+        <v>0.012259425768957</v>
       </c>
       <c r="E77">
-        <v>0.1136041307454158</v>
+        <v>-0.03116275914511679</v>
       </c>
       <c r="F77">
-        <v>0.028035138039068</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.0217054054505612</v>
+      </c>
+      <c r="G77">
+        <v>-0.02279681620802413</v>
+      </c>
+      <c r="H77">
+        <v>-0.0352550906399534</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02961611589932635</v>
+        <v>0.03006548179407746</v>
       </c>
       <c r="C78">
-        <v>-0.005299110502452509</v>
+        <v>-0.0612010627662706</v>
       </c>
       <c r="D78">
-        <v>-0.05998695153544577</v>
+        <v>0.004449030392275465</v>
       </c>
       <c r="E78">
-        <v>0.01903040061221094</v>
+        <v>-0.00519342357753138</v>
       </c>
       <c r="F78">
-        <v>0.06633314231852004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04959317083467218</v>
+      </c>
+      <c r="G78">
+        <v>0.003714024069088114</v>
+      </c>
+      <c r="H78">
+        <v>-0.01630260776424265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.221827214745123</v>
+        <v>0.0643283607978392</v>
       </c>
       <c r="C80">
-        <v>-0.9464447432110333</v>
+        <v>-0.08467597922576271</v>
       </c>
       <c r="D80">
-        <v>0.03675590105859597</v>
+        <v>0.009215841494754037</v>
       </c>
       <c r="E80">
-        <v>0.1545917737342802</v>
+        <v>0.06601877287452664</v>
       </c>
       <c r="F80">
-        <v>-0.01467279848163043</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.1487791603931825</v>
+      </c>
+      <c r="G80">
+        <v>-0.8061606198212005</v>
+      </c>
+      <c r="H80">
+        <v>-0.491430805278172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2036897139536116</v>
+        <v>0.1398410593955199</v>
       </c>
       <c r="C81">
-        <v>0.008355762098878724</v>
+        <v>-0.1039463813830471</v>
       </c>
       <c r="D81">
-        <v>-0.05422402232768833</v>
+        <v>-0.02144223678635022</v>
       </c>
       <c r="E81">
-        <v>-0.1492898875903265</v>
+        <v>0.02311048187923076</v>
       </c>
       <c r="F81">
-        <v>-0.001172789432929828</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1131855199510163</v>
+      </c>
+      <c r="G81">
+        <v>-0.0719984378742988</v>
+      </c>
+      <c r="H81">
+        <v>0.06499172372276082</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.02042947902499686</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.01383763556153011</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.001900254224860036</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01478499049967289</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01381309135391787</v>
+      </c>
+      <c r="G82">
+        <v>0.008402251072081019</v>
+      </c>
+      <c r="H82">
+        <v>0.0007438608541374914</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02841134777584738</v>
+        <v>0.02232916369677955</v>
       </c>
       <c r="C83">
-        <v>0.00606133297794041</v>
+        <v>-0.01882546231816382</v>
       </c>
       <c r="D83">
-        <v>-0.01134578546627928</v>
+        <v>0.004283742544463408</v>
       </c>
       <c r="E83">
-        <v>0.0350436933784098</v>
+        <v>-0.01625782989426201</v>
       </c>
       <c r="F83">
-        <v>0.03830139476664486</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.03637533007026985</v>
+      </c>
+      <c r="G83">
+        <v>-0.00420616082808516</v>
+      </c>
+      <c r="H83">
+        <v>-0.02009358128608225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2538776243037935</v>
+        <v>0.2242065593301619</v>
       </c>
       <c r="C85">
-        <v>0.03275639075976987</v>
+        <v>-0.1956500813334119</v>
       </c>
       <c r="D85">
-        <v>-0.1101538508593348</v>
+        <v>-0.0238894673989764</v>
       </c>
       <c r="E85">
-        <v>-0.2030696435244972</v>
+        <v>0.07133580237866873</v>
       </c>
       <c r="F85">
-        <v>-0.04370287466062184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1759251195323137</v>
+      </c>
+      <c r="G85">
+        <v>-0.04069304238841912</v>
+      </c>
+      <c r="H85">
+        <v>0.1340695613232857</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0002407916732517588</v>
+        <v>0.008234642543531637</v>
       </c>
       <c r="C86">
-        <v>-0.01054826125292212</v>
+        <v>-0.02609369496053387</v>
       </c>
       <c r="D86">
-        <v>-0.04494995236897684</v>
+        <v>0.00880597016582978</v>
       </c>
       <c r="E86">
-        <v>0.02821383655108625</v>
+        <v>-0.007026421519283171</v>
       </c>
       <c r="F86">
-        <v>0.07303363300577721</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03754161207501384</v>
+      </c>
+      <c r="G86">
+        <v>-0.01462283087824292</v>
+      </c>
+      <c r="H86">
+        <v>-0.05738730118472948</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03218559334087059</v>
+        <v>0.005206263853520625</v>
       </c>
       <c r="C87">
-        <v>-0.005615125205448449</v>
+        <v>-0.03413854828375024</v>
       </c>
       <c r="D87">
-        <v>-0.0409548918772429</v>
+        <v>0.01057341134275391</v>
       </c>
       <c r="E87">
-        <v>0.05671290338773924</v>
+        <v>-0.04247580037209397</v>
       </c>
       <c r="F87">
-        <v>0.07014675417926187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.05338294105495298</v>
+      </c>
+      <c r="G87">
+        <v>-0.006297294776871807</v>
+      </c>
+      <c r="H87">
+        <v>-0.04892874518315892</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04152742961629503</v>
+        <v>0.06297669861053909</v>
       </c>
       <c r="C88">
-        <v>0.006696493168542308</v>
+        <v>-0.04561852735312193</v>
       </c>
       <c r="D88">
-        <v>0.002614486006400209</v>
+        <v>0.01910085662947295</v>
       </c>
       <c r="E88">
-        <v>0.0004586632501605359</v>
+        <v>0.009716203428329849</v>
       </c>
       <c r="F88">
-        <v>-0.01116996301127381</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.03589307785253293</v>
+      </c>
+      <c r="G88">
+        <v>-0.0005915721120896242</v>
+      </c>
+      <c r="H88">
+        <v>-0.01075782061424209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1616091661469353</v>
+        <v>0.2702145382380404</v>
       </c>
       <c r="C89">
-        <v>0.06198523690063718</v>
+        <v>0.341439775207156</v>
       </c>
       <c r="D89">
-        <v>0.3688373195018355</v>
+        <v>-0.01858145436454097</v>
       </c>
       <c r="E89">
-        <v>0.04174664951319897</v>
+        <v>-0.01554707674823043</v>
       </c>
       <c r="F89">
-        <v>0.03108005597967064</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.006519282888777454</v>
+      </c>
+      <c r="G89">
+        <v>-0.007509418807805921</v>
+      </c>
+      <c r="H89">
+        <v>-0.005710222058114735</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.104384900636708</v>
+        <v>0.2186163776825162</v>
       </c>
       <c r="C90">
-        <v>0.05758944613012682</v>
+        <v>0.3115492514646989</v>
       </c>
       <c r="D90">
-        <v>0.33661552075072</v>
+        <v>-0.01809972763655016</v>
       </c>
       <c r="E90">
-        <v>0.04436590621789436</v>
+        <v>-0.02812371960195886</v>
       </c>
       <c r="F90">
-        <v>-0.02186996202881159</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0484319651887784</v>
+      </c>
+      <c r="G90">
+        <v>-0.007311488701709765</v>
+      </c>
+      <c r="H90">
+        <v>0.003567790166407421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2959259117090237</v>
+        <v>0.1988381647224571</v>
       </c>
       <c r="C91">
-        <v>0.03498560215418883</v>
+        <v>-0.1459306377570335</v>
       </c>
       <c r="D91">
-        <v>-0.1190179844693297</v>
+        <v>-0.03126459312937128</v>
       </c>
       <c r="E91">
-        <v>-0.2176826840424247</v>
+        <v>0.05404872912835178</v>
       </c>
       <c r="F91">
-        <v>-0.1222555898356419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1842528814658645</v>
+      </c>
+      <c r="G91">
+        <v>-0.07877226967794398</v>
+      </c>
+      <c r="H91">
+        <v>0.09737673509533525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.224235205894263</v>
+        <v>0.2441214627765304</v>
       </c>
       <c r="C92">
-        <v>0.06499576977888033</v>
+        <v>0.2517538330203296</v>
       </c>
       <c r="D92">
-        <v>0.372799782010003</v>
+        <v>-0.06154003306099996</v>
       </c>
       <c r="E92">
-        <v>-0.0569497214080203</v>
+        <v>-0.03940515552406668</v>
       </c>
       <c r="F92">
-        <v>-0.01640349597234749</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1087757761640612</v>
+      </c>
+      <c r="G92">
+        <v>-0.0929309363657122</v>
+      </c>
+      <c r="H92">
+        <v>0.05616661039303928</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1520421363395736</v>
+        <v>0.255786284589021</v>
       </c>
       <c r="C93">
-        <v>0.08408764050038509</v>
+        <v>0.2981080408223507</v>
       </c>
       <c r="D93">
-        <v>0.3927004152328377</v>
+        <v>-0.02689260903332522</v>
       </c>
       <c r="E93">
-        <v>0.0820482025539227</v>
+        <v>-0.03392791520007644</v>
       </c>
       <c r="F93">
-        <v>-0.05922177544014089</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.02110412323612549</v>
+      </c>
+      <c r="G93">
+        <v>0.0141574828343188</v>
+      </c>
+      <c r="H93">
+        <v>-0.02953593932817266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3187836470601085</v>
+        <v>0.2609567684973818</v>
       </c>
       <c r="C94">
-        <v>0.0640477597948461</v>
+        <v>-0.1861295209034779</v>
       </c>
       <c r="D94">
-        <v>-0.08094481641831247</v>
+        <v>-0.02005745429527174</v>
       </c>
       <c r="E94">
-        <v>-0.2522917423001926</v>
+        <v>0.06136103671946608</v>
       </c>
       <c r="F94">
-        <v>-0.004225737559982645</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2727944316086994</v>
+      </c>
+      <c r="G94">
+        <v>-0.09174250830358553</v>
+      </c>
+      <c r="H94">
+        <v>0.3305492789008844</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05655305128876954</v>
+        <v>0.07553593141015806</v>
       </c>
       <c r="C95">
-        <v>0.08019635321131589</v>
+        <v>-0.1121464351193208</v>
       </c>
       <c r="D95">
-        <v>-0.02355885088461973</v>
+        <v>-0.01031573134272473</v>
       </c>
       <c r="E95">
-        <v>-0.004331154912720563</v>
+        <v>-0.0200723705339905</v>
       </c>
       <c r="F95">
-        <v>0.01089131056272394</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08147746049047656</v>
+      </c>
+      <c r="G95">
+        <v>0.1190992667810258</v>
+      </c>
+      <c r="H95">
+        <v>-0.01666643440704313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1912139298172387</v>
+        <v>0.2056732808563119</v>
       </c>
       <c r="C98">
-        <v>0.06021555077972716</v>
+        <v>-0.07231255299217759</v>
       </c>
       <c r="D98">
-        <v>0.03144199435107342</v>
+        <v>-0.02733063692193533</v>
       </c>
       <c r="E98">
-        <v>0.1146783174309086</v>
+        <v>-0.01107873222388942</v>
       </c>
       <c r="F98">
-        <v>0.1061064621482223</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2040637644538848</v>
+      </c>
+      <c r="G98">
+        <v>0.1491710478510159</v>
+      </c>
+      <c r="H98">
+        <v>-0.1238490687551039</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007070795570633776</v>
+        <v>0.002120739279829759</v>
       </c>
       <c r="C101">
-        <v>-0.004534621404185315</v>
+        <v>-0.01550148959926341</v>
       </c>
       <c r="D101">
-        <v>-0.0282492192531246</v>
+        <v>0.007574599710102505</v>
       </c>
       <c r="E101">
-        <v>0.05727531581889268</v>
+        <v>-0.0305196577675041</v>
       </c>
       <c r="F101">
-        <v>0.1863597804742152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02991029012082198</v>
+      </c>
+      <c r="G101">
+        <v>-0.02854432730861237</v>
+      </c>
+      <c r="H101">
+        <v>0.01064583812319647</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1360850442202808</v>
+        <v>0.1129504473351467</v>
       </c>
       <c r="C102">
-        <v>0.01260496369159584</v>
+        <v>-0.08990876712929005</v>
       </c>
       <c r="D102">
-        <v>-0.0482857642834495</v>
+        <v>-0.003718982800999035</v>
       </c>
       <c r="E102">
-        <v>-0.0978352832101238</v>
+        <v>0.04128948008450663</v>
       </c>
       <c r="F102">
-        <v>-0.0546790117247479</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.07483111117317824</v>
+      </c>
+      <c r="G102">
+        <v>-0.02583248469060455</v>
+      </c>
+      <c r="H102">
+        <v>0.04443443044915961</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04237064995598712</v>
+        <v>0.008876183389679614</v>
       </c>
       <c r="C103">
-        <v>-0.01484785697040369</v>
+        <v>-0.008686632514174401</v>
       </c>
       <c r="D103">
-        <v>-0.01926408698016482</v>
+        <v>-0.0003823646614582476</v>
       </c>
       <c r="E103">
-        <v>-0.01986962450909834</v>
+        <v>-0.001187542808163008</v>
       </c>
       <c r="F103">
-        <v>0.006847140384348758</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01003383168687707</v>
+      </c>
+      <c r="G103">
+        <v>-0.02153958994428042</v>
+      </c>
+      <c r="H103">
+        <v>-0.002719678905668183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.07587477994497555</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04661622143585775</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9826243044122388</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03818077730637403</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.02389113745392055</v>
+      </c>
+      <c r="G104">
+        <v>-0.04401946410162316</v>
+      </c>
+      <c r="H104">
+        <v>0.1128240201383278</v>
       </c>
     </row>
   </sheetData>
